--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Kings XI Punjab/Chris Gayle.xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Kings XI Punjab/Chris Gayle.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,9 +660,254 @@
         <v>Kings XI won by 12 runs</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Chris Gayle</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="D9" t="str">
+        <v>24</v>
+      </c>
+      <c r="E9" t="str">
+        <v>21</v>
+      </c>
+      <c r="F9" t="str">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2</v>
+      </c>
+      <c r="H9" t="str">
+        <v>114.28</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Oct 18 2020</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Match tied (Kings XI won the one-over eliminator)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Chris Gayle</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="D10" t="str">
+        <v>51</v>
+      </c>
+      <c r="E10" t="str">
+        <v>29</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <v>5</v>
+      </c>
+      <c r="H10" t="str">
+        <v>175.86</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Oct 26 2020</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Kings XI won by 8 wickets (with 7 balls remaining)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Chris Gayle</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D11" t="str">
+        <v>12</v>
+      </c>
+      <c r="E11" t="str">
+        <v>19</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <v>63.15</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Nov 1 2020</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Super Kings won by 9 wickets (with 7 balls remaining)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Chris Gayle</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D12" t="str">
+        <v>20</v>
+      </c>
+      <c r="E12" t="str">
+        <v>20</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <v>1</v>
+      </c>
+      <c r="H12" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Oct 24 2020</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Kings XI won by 12 runs</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Chris Gayle</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="D13" t="str">
+        <v>99</v>
+      </c>
+      <c r="E13" t="str">
+        <v>63</v>
+      </c>
+      <c r="F13" t="str">
+        <v>6</v>
+      </c>
+      <c r="G13" t="str">
+        <v>8</v>
+      </c>
+      <c r="H13" t="str">
+        <v>157.14</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Oct 30 2020</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Royals won by 7 wickets (with 15 balls remaining)</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Chris Gayle</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="D14" t="str">
+        <v>53</v>
+      </c>
+      <c r="E14" t="str">
+        <v>45</v>
+      </c>
+      <c r="F14" t="str">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <v>5</v>
+      </c>
+      <c r="H14" t="str">
+        <v>117.77</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Oct 15 2020</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Kings XI won by 8 wickets</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Chris Gayle</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="D15" t="str">
+        <v>29</v>
+      </c>
+      <c r="E15" t="str">
+        <v>13</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2</v>
+      </c>
+      <c r="H15" t="str">
+        <v>223.07</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Oct 20 2020</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Kings XI won by 5 wickets (with 6 balls remaining)</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K15"/>
   </ignoredErrors>
 </worksheet>
 </file>